--- a/municipal/ENG/Demography/Number of deaths/Tetritskaro.xlsx
+++ b/municipal/ENG/Demography/Number of deaths/Tetritskaro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emaruashvili\Desktop\cx 9 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\2) გარდაცვალება 2022\5(+გარდაცვალება საქალაქო სასოფლო\Number of deaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14640E01-DC87-46D7-BA9E-1F66C2AA76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF55F63-CC07-4EB4-9C1A-EB04FB7604A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="615" windowWidth="12165" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="30" windowWidth="28800" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -242,54 +253,45 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -302,7 +304,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,36 +315,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,14 +337,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -368,6 +355,33 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -376,7 +390,42 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -652,71 +701,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="21" customWidth="1"/>
-    <col min="2" max="37" width="11" style="21" customWidth="1"/>
-    <col min="38" max="16384" width="8.28515625" style="21"/>
+    <col min="1" max="1" width="27.7109375" style="16" customWidth="1"/>
+    <col min="2" max="37" width="11" style="16" customWidth="1"/>
+    <col min="38" max="16384" width="8.28515625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
     </row>
-    <row r="4" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3">
         <v>2010</v>
       </c>
       <c r="C4" s="1">
@@ -749,134 +800,169 @@
       <c r="L4" s="2">
         <v>2020</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>2021</v>
       </c>
+      <c r="N4" s="25">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>244</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>223</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>231</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>214</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>315</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>329</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>401</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>323</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>310</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>306</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>298</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>360</v>
       </c>
+      <c r="N5" s="27">
+        <v>306</v>
+      </c>
+      <c r="O5" s="21">
+        <v>256</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>60</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="22">
         <v>50</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="22">
         <v>48</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="22">
         <v>49</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="22">
         <v>95</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="22">
         <v>91</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="22">
         <v>119</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="22">
         <v>92</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="22">
         <v>82</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="22">
         <v>92</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="22">
         <v>72</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="22">
         <v>102</v>
       </c>
+      <c r="N6" s="28">
+        <v>82</v>
+      </c>
+      <c r="O6" s="23">
+        <v>85</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>184</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="8">
         <v>173</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>183</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>165</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>220</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>238</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>282</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>231</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>228</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="8">
         <v>214</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <v>226</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>258</v>
       </c>
+      <c r="N7" s="29">
+        <v>224</v>
+      </c>
+      <c r="O7" s="24">
+        <v>171</v>
+      </c>
     </row>
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <conditionalFormatting sqref="N5:N7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>